--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H2">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I2">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J2">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>670.4531730377944</v>
+        <v>1605.112907489195</v>
       </c>
       <c r="R2">
-        <v>6034.07855734015</v>
+        <v>14446.01616740275</v>
       </c>
       <c r="S2">
-        <v>0.3690116129796728</v>
+        <v>0.4564042857455722</v>
       </c>
       <c r="T2">
-        <v>0.3690116129796728</v>
+        <v>0.4564042857455722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H3">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I3">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J3">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>138.5143550991205</v>
+        <v>223.9165965600782</v>
       </c>
       <c r="R3">
-        <v>1246.629195892085</v>
+        <v>2015.249369040704</v>
       </c>
       <c r="S3">
-        <v>0.07623709999666795</v>
+        <v>0.06366934926680223</v>
       </c>
       <c r="T3">
-        <v>0.07623709999666793</v>
+        <v>0.06366934926680222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H4">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I4">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J4">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>526.2343320703955</v>
+        <v>968.2557485849171</v>
       </c>
       <c r="R4">
-        <v>4736.10898863356</v>
+        <v>8714.301737264255</v>
       </c>
       <c r="S4">
-        <v>0.2896348134243685</v>
+        <v>0.275317749480448</v>
       </c>
       <c r="T4">
-        <v>0.2896348134243685</v>
+        <v>0.2753177494804479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H5">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I5">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J5">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>154.0703959935466</v>
+        <v>244.5734415206257</v>
       </c>
       <c r="R5">
-        <v>1386.63356394192</v>
+        <v>2201.160973685632</v>
       </c>
       <c r="S5">
-        <v>0.08479901001943749</v>
+        <v>0.06954299997759449</v>
       </c>
       <c r="T5">
-        <v>0.08479901001943746</v>
+        <v>0.06954299997759447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.695136</v>
       </c>
       <c r="I6">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J6">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>11.02461675189333</v>
+        <v>16.327103192192</v>
       </c>
       <c r="R6">
-        <v>99.22155076703999</v>
+        <v>146.943928729728</v>
       </c>
       <c r="S6">
-        <v>0.00606785346643374</v>
+        <v>0.004642514452383972</v>
       </c>
       <c r="T6">
-        <v>0.006067853466433738</v>
+        <v>0.004642514452383971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.695136</v>
       </c>
       <c r="I7">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J7">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>2.277664930250666</v>
@@ -883,10 +883,10 @@
         <v>20.498984372256</v>
       </c>
       <c r="S7">
-        <v>0.001253607028110304</v>
+        <v>0.0006476404437398072</v>
       </c>
       <c r="T7">
-        <v>0.001253607028110303</v>
+        <v>0.0006476404437398071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.695136</v>
       </c>
       <c r="I8">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J8">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>8.653149938090666</v>
+        <v>9.849033952575999</v>
       </c>
       <c r="R8">
-        <v>77.87834944281599</v>
+        <v>88.641305573184</v>
       </c>
       <c r="S8">
-        <v>0.004762618694967073</v>
+        <v>0.00280051408560466</v>
       </c>
       <c r="T8">
-        <v>0.004762618694967071</v>
+        <v>0.00280051408560466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.695136</v>
       </c>
       <c r="I9">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J9">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>2.533461152768</v>
+        <v>2.487785002005333</v>
       </c>
       <c r="R9">
-        <v>22.80115037491199</v>
+        <v>22.390065018048</v>
       </c>
       <c r="S9">
-        <v>0.001394395050989729</v>
+        <v>0.0007073868334314885</v>
       </c>
       <c r="T9">
-        <v>0.001394395050989729</v>
+        <v>0.0007073868334314884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H10">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I10">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J10">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>6.320326050582221</v>
+        <v>5.485561498238668</v>
       </c>
       <c r="R10">
-        <v>56.88293445523999</v>
+        <v>49.37005348414801</v>
       </c>
       <c r="S10">
-        <v>0.003478652655062187</v>
+        <v>0.001559786707735938</v>
       </c>
       <c r="T10">
-        <v>0.003478652655062186</v>
+        <v>0.001559786707735938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H11">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I11">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J11">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>1.305767385581778</v>
+        <v>0.7652472640245556</v>
       </c>
       <c r="R11">
-        <v>11.751906470236</v>
+        <v>6.887225376221</v>
       </c>
       <c r="S11">
-        <v>0.0007186830467914276</v>
+        <v>0.0002175934972090004</v>
       </c>
       <c r="T11">
-        <v>0.0007186830467914273</v>
+        <v>0.0002175934972090004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H12">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I12">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J12">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>4.960782783121777</v>
+        <v>3.309067187799333</v>
       </c>
       <c r="R12">
-        <v>44.647045048096</v>
+        <v>29.781604690194</v>
       </c>
       <c r="S12">
-        <v>0.002730371829172274</v>
+        <v>0.0009409135265718565</v>
       </c>
       <c r="T12">
-        <v>0.002730371829172273</v>
+        <v>0.0009409135265718564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H13">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I13">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J13">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>1.452413347541333</v>
+        <v>0.8358431659464445</v>
       </c>
       <c r="R13">
-        <v>13.071720127872</v>
+        <v>7.522588493518</v>
       </c>
       <c r="S13">
-        <v>0.0007993957126953904</v>
+        <v>0.0002376670210358226</v>
       </c>
       <c r="T13">
-        <v>0.0007993957126953902</v>
+        <v>0.0002376670210358226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H14">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I14">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J14">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>130.1443719500744</v>
+        <v>228.837057111584</v>
       </c>
       <c r="R14">
-        <v>1171.29934755067</v>
+        <v>2059.533514004256</v>
       </c>
       <c r="S14">
-        <v>0.07163033384706828</v>
+        <v>0.06506845288940169</v>
       </c>
       <c r="T14">
-        <v>0.07163033384706827</v>
+        <v>0.06506845288940168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H15">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I15">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J15">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>26.88758063261255</v>
+        <v>31.92324649323466</v>
       </c>
       <c r="R15">
-        <v>241.988225693513</v>
+        <v>287.309218439112</v>
       </c>
       <c r="S15">
-        <v>0.01479869123954771</v>
+        <v>0.009077184817618629</v>
       </c>
       <c r="T15">
-        <v>0.0147986912395477</v>
+        <v>0.009077184817618628</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H16">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I16">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J16">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>102.1494705373075</v>
+        <v>138.041875436752</v>
       </c>
       <c r="R16">
-        <v>919.3452348357679</v>
+        <v>1242.376878930768</v>
       </c>
       <c r="S16">
-        <v>0.05622218285163749</v>
+        <v>0.03925138429061831</v>
       </c>
       <c r="T16">
-        <v>0.05622218285163746</v>
+        <v>0.0392513842906183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H17">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I17">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J17">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>29.90722652833066</v>
+        <v>34.86824281587733</v>
       </c>
       <c r="R17">
-        <v>269.1650387549759</v>
+        <v>313.814185342896</v>
       </c>
       <c r="S17">
-        <v>0.01646067815737765</v>
+        <v>0.009914576964231911</v>
       </c>
       <c r="T17">
-        <v>0.01646067815737764</v>
+        <v>0.009914576964231909</v>
       </c>
     </row>
   </sheetData>
